--- a/data/censustables/ACS_17_5yr_totalpop_allcounties.xlsx
+++ b/data/censustables/ACS_17_5yr_totalpop_allcounties.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victoria\Desktop\ACS_17_5yr_totalpop_allcounties\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victoria\Desktop\THESIS\Analysis\gitproject\park-equity-atx\data\censustables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{772D6675-B242-464F-99DA-A080B9EA52D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF8E61B-6509-4B5E-83AA-884789913801}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{44306A0D-BBFC-4DB5-80AC-FCB1DB8FABEA}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>Id2</t>
   </si>
   <si>
-    <t>Estimate; Total</t>
-  </si>
-  <si>
     <t>1500000US482090101001</t>
   </si>
   <si>
@@ -2749,6 +2746,9 @@
   </si>
   <si>
     <t>1500000US484910216032</t>
+  </si>
+  <si>
+    <t>Total_POP</t>
   </si>
 </sst>
 </file>
@@ -3103,7 +3103,7 @@
   <dimension ref="A1:C904"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1048575"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3116,12 +3116,12 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>905</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>482090101001</v>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>482090101002</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>482090102001</v>
@@ -3154,7 +3154,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>482090102002</v>
@@ -3165,7 +3165,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>482090102003</v>
@@ -3176,7 +3176,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>482090103021</v>
@@ -3187,7 +3187,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>482090103022</v>
@@ -3198,7 +3198,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>482090103031</v>
@@ -3209,7 +3209,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>482090103032</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>482090103033</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>482090103041</v>
@@ -3242,7 +3242,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>482090103042</v>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>482090103043</v>
@@ -3264,7 +3264,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>482090103044</v>
@@ -3275,7 +3275,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>482090104001</v>
@@ -3286,7 +3286,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>482090104002</v>
@@ -3297,7 +3297,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>482090104003</v>
@@ -3308,7 +3308,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>482090105001</v>
@@ -3319,7 +3319,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>482090105002</v>
@@ -3330,7 +3330,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>482090106001</v>
@@ -3341,7 +3341,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>482090106002</v>
@@ -3352,7 +3352,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>482090106003</v>
@@ -3363,7 +3363,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>482090106004</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>482090106005</v>
@@ -3385,7 +3385,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>482090106006</v>
@@ -3396,7 +3396,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>482090107011</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>482090107012</v>
@@ -3418,7 +3418,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>482090107013</v>
@@ -3429,7 +3429,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>482090107014</v>
@@ -3440,7 +3440,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>482090107021</v>
@@ -3451,7 +3451,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>482090107022</v>
@@ -3462,7 +3462,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>482090108031</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>482090108032</v>
@@ -3484,7 +3484,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>482090108033</v>
@@ -3495,7 +3495,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>482090108041</v>
@@ -3506,7 +3506,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>482090108042</v>
@@ -3517,7 +3517,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>482090108043</v>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>482090108044</v>
@@ -3539,7 +3539,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>482090108051</v>
@@ -3550,7 +3550,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>482090108052</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42">
         <v>482090108053</v>
@@ -3572,7 +3572,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>482090108054</v>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>482090108061</v>
@@ -3594,7 +3594,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>482090108062</v>
@@ -3605,7 +3605,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>482090108071</v>
@@ -3616,7 +3616,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>482090108072</v>
@@ -3627,7 +3627,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>482090108081</v>
@@ -3638,7 +3638,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49">
         <v>482090108082</v>
@@ -3649,7 +3649,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50">
         <v>482090108083</v>
@@ -3660,7 +3660,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>482090108091</v>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>482090108092</v>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <v>482090109011</v>
@@ -3693,7 +3693,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54">
         <v>482090109012</v>
@@ -3704,7 +3704,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <v>482090109013</v>
@@ -3715,7 +3715,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56">
         <v>482090109014</v>
@@ -3726,7 +3726,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57">
         <v>482090109021</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58">
         <v>482090109022</v>
@@ -3748,7 +3748,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59">
         <v>482090109023</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60">
         <v>482090109024</v>
@@ -3770,7 +3770,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B61">
         <v>482090109025</v>
@@ -3781,7 +3781,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62">
         <v>482090109051</v>
@@ -3792,7 +3792,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B63">
         <v>482090109052</v>
@@ -3803,7 +3803,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64">
         <v>482090109053</v>
@@ -3814,7 +3814,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65">
         <v>482090109061</v>
@@ -3825,7 +3825,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66">
         <v>482090109062</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67">
         <v>482090109063</v>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68">
         <v>482090109064</v>
@@ -3858,7 +3858,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69">
         <v>482090109071</v>
@@ -3869,7 +3869,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70">
         <v>482090109072</v>
@@ -3880,7 +3880,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71">
         <v>482090109073</v>
@@ -3891,7 +3891,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72">
         <v>482090109074</v>
@@ -3902,7 +3902,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73">
         <v>482090109081</v>
@@ -3913,7 +3913,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74">
         <v>482090109082</v>
@@ -3924,7 +3924,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75">
         <v>482090109091</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76">
         <v>482090109092</v>
@@ -3946,7 +3946,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77">
         <v>482090109093</v>
@@ -3957,7 +3957,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78">
         <v>482090109101</v>
@@ -3968,7 +3968,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79">
         <v>482090109102</v>
@@ -3979,7 +3979,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80">
         <v>482090109103</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81">
         <v>482090109104</v>
@@ -4001,7 +4001,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82">
         <v>484530001011</v>
@@ -4012,7 +4012,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83">
         <v>484530001012</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84">
         <v>484530001013</v>
@@ -4034,7 +4034,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85">
         <v>484530001021</v>
@@ -4045,7 +4045,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86">
         <v>484530001022</v>
@@ -4056,7 +4056,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87">
         <v>484530002031</v>
@@ -4067,7 +4067,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88">
         <v>484530002041</v>
@@ -4078,7 +4078,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89">
         <v>484530002042</v>
@@ -4089,7 +4089,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90">
         <v>484530002043</v>
@@ -4100,7 +4100,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91">
         <v>484530002051</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92">
         <v>484530002052</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B93">
         <v>484530002053</v>
@@ -4133,7 +4133,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B94">
         <v>484530002061</v>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B95">
         <v>484530002062</v>
@@ -4155,7 +4155,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B96">
         <v>484530002063</v>
@@ -4166,7 +4166,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B97">
         <v>484530003021</v>
@@ -4177,7 +4177,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B98">
         <v>484530003022</v>
@@ -4188,7 +4188,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B99">
         <v>484530003023</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B100">
         <v>484530003024</v>
@@ -4210,7 +4210,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B101">
         <v>484530003025</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B102">
         <v>484530003041</v>
@@ -4232,7 +4232,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B103">
         <v>484530003042</v>
@@ -4243,7 +4243,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B104">
         <v>484530003051</v>
@@ -4254,7 +4254,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B105">
         <v>484530003052</v>
@@ -4265,7 +4265,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B106">
         <v>484530003053</v>
@@ -4276,7 +4276,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B107">
         <v>484530003061</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B108">
         <v>484530003071</v>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B109">
         <v>484530004011</v>
@@ -4309,7 +4309,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B110">
         <v>484530004012</v>
@@ -4320,7 +4320,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B111">
         <v>484530004021</v>
@@ -4331,7 +4331,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B112">
         <v>484530004022</v>
@@ -4342,7 +4342,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B113">
         <v>484530004023</v>
@@ -4353,7 +4353,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B114">
         <v>484530005001</v>
@@ -4364,7 +4364,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B115">
         <v>484530005002</v>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B116">
         <v>484530005003</v>
@@ -4386,7 +4386,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B117">
         <v>484530005004</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B118">
         <v>484530006011</v>
@@ -4408,7 +4408,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B119">
         <v>484530006012</v>
@@ -4419,7 +4419,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B120">
         <v>484530006031</v>
@@ -4430,7 +4430,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B121">
         <v>484530006032</v>
@@ -4441,7 +4441,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B122">
         <v>484530006033</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B123">
         <v>484530006034</v>
@@ -4463,7 +4463,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B124">
         <v>484530006035</v>
@@ -4474,7 +4474,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B125">
         <v>484530006041</v>
@@ -4485,7 +4485,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B126">
         <v>484530006042</v>
@@ -4496,7 +4496,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B127">
         <v>484530006043</v>
@@ -4507,7 +4507,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B128">
         <v>484530007001</v>
@@ -4518,7 +4518,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B129">
         <v>484530008011</v>
@@ -4529,7 +4529,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B130">
         <v>484530008021</v>
@@ -4540,7 +4540,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B131">
         <v>484530008022</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B132">
         <v>484530008023</v>
@@ -4562,7 +4562,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B133">
         <v>484530008031</v>
@@ -4573,7 +4573,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B134">
         <v>484530008032</v>
@@ -4584,7 +4584,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B135">
         <v>484530008033</v>
@@ -4595,7 +4595,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B136">
         <v>484530008041</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B137">
         <v>484530008042</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B138">
         <v>484530009011</v>
@@ -4628,7 +4628,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B139">
         <v>484530009012</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B140">
         <v>484530009021</v>
@@ -4650,7 +4650,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B141">
         <v>484530009022</v>
@@ -4661,7 +4661,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B142">
         <v>484530009023</v>
@@ -4672,7 +4672,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B143">
         <v>484530009024</v>
@@ -4683,7 +4683,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B144">
         <v>484530010001</v>
@@ -4694,7 +4694,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B145">
         <v>484530010002</v>
@@ -4705,7 +4705,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B146">
         <v>484530010003</v>
@@ -4716,7 +4716,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B147">
         <v>484530010004</v>
@@ -4727,7 +4727,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B148">
         <v>484530010005</v>
@@ -4738,7 +4738,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B149">
         <v>484530011001</v>
@@ -4749,7 +4749,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B150">
         <v>484530011002</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B151">
         <v>484530012001</v>
@@ -4771,7 +4771,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B152">
         <v>484530012002</v>
@@ -4782,7 +4782,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B153">
         <v>484530012003</v>
@@ -4793,7 +4793,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B154">
         <v>484530013031</v>
@@ -4804,7 +4804,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B155">
         <v>484530013032</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B156">
         <v>484530013033</v>
@@ -4826,7 +4826,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B157">
         <v>484530013041</v>
@@ -4837,7 +4837,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B158">
         <v>484530013042</v>
@@ -4848,7 +4848,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B159">
         <v>484530013043</v>
@@ -4859,7 +4859,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B160">
         <v>484530013044</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B161">
         <v>484530013051</v>
@@ -4881,7 +4881,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B162">
         <v>484530013052</v>
@@ -4892,7 +4892,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B163">
         <v>484530013053</v>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B164">
         <v>484530013054</v>
@@ -4914,7 +4914,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B165">
         <v>484530013071</v>
@@ -4925,7 +4925,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B166">
         <v>484530013072</v>
@@ -4936,7 +4936,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B167">
         <v>484530013073</v>
@@ -4947,7 +4947,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B168">
         <v>484530013081</v>
@@ -4958,7 +4958,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B169">
         <v>484530013082</v>
@@ -4969,7 +4969,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B170">
         <v>484530013083</v>
@@ -4980,7 +4980,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B171">
         <v>484530013084</v>
@@ -4991,7 +4991,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B172">
         <v>484530014011</v>
@@ -5002,7 +5002,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B173">
         <v>484530014012</v>
@@ -5013,7 +5013,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B174">
         <v>484530014021</v>
@@ -5024,7 +5024,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B175">
         <v>484530014022</v>
@@ -5035,7 +5035,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B176">
         <v>484530014023</v>
@@ -5046,7 +5046,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B177">
         <v>484530014031</v>
@@ -5057,7 +5057,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B178">
         <v>484530014032</v>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B179">
         <v>484530015011</v>
@@ -5079,7 +5079,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B180">
         <v>484530015012</v>
@@ -5090,7 +5090,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B181">
         <v>484530015013</v>
@@ -5101,7 +5101,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B182">
         <v>484530015014</v>
@@ -5112,7 +5112,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B183">
         <v>484530015031</v>
@@ -5123,7 +5123,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B184">
         <v>484530015032</v>
@@ -5134,7 +5134,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B185">
         <v>484530015033</v>
@@ -5145,7 +5145,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B186">
         <v>484530015034</v>
@@ -5156,7 +5156,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B187">
         <v>484530015041</v>
@@ -5167,7 +5167,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B188">
         <v>484530015042</v>
@@ -5178,7 +5178,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B189">
         <v>484530015043</v>
@@ -5189,7 +5189,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B190">
         <v>484530015044</v>
@@ -5200,7 +5200,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B191">
         <v>484530015051</v>
@@ -5211,7 +5211,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B192">
         <v>484530015052</v>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B193">
         <v>484530015053</v>
@@ -5233,7 +5233,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B194">
         <v>484530015054</v>
@@ -5244,7 +5244,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B195">
         <v>484530016021</v>
@@ -5255,7 +5255,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B196">
         <v>484530016022</v>
@@ -5266,7 +5266,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B197">
         <v>484530016023</v>
@@ -5277,7 +5277,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B198">
         <v>484530016031</v>
@@ -5288,7 +5288,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B199">
         <v>484530016032</v>
@@ -5299,7 +5299,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B200">
         <v>484530016033</v>
@@ -5310,7 +5310,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B201">
         <v>484530016034</v>
@@ -5321,7 +5321,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B202">
         <v>484530016035</v>
@@ -5332,7 +5332,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B203">
         <v>484530016041</v>
@@ -5343,7 +5343,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B204">
         <v>484530016042</v>
@@ -5354,7 +5354,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B205">
         <v>484530016043</v>
@@ -5365,7 +5365,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B206">
         <v>484530016044</v>
@@ -5376,7 +5376,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B207">
         <v>484530016051</v>
@@ -5387,7 +5387,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B208">
         <v>484530016052</v>
@@ -5398,7 +5398,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B209">
         <v>484530016053</v>
@@ -5409,7 +5409,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B210">
         <v>484530016054</v>
@@ -5420,7 +5420,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B211">
         <v>484530016061</v>
@@ -5431,7 +5431,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B212">
         <v>484530017051</v>
@@ -5442,7 +5442,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B213">
         <v>484530017052</v>
@@ -5453,7 +5453,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B214">
         <v>484530017053</v>
@@ -5464,7 +5464,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B215">
         <v>484530017054</v>
@@ -5475,7 +5475,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B216">
         <v>484530017061</v>
@@ -5486,7 +5486,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B217">
         <v>484530017062</v>
@@ -5497,7 +5497,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B218">
         <v>484530017063</v>
@@ -5508,7 +5508,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B219">
         <v>484530017071</v>
@@ -5519,7 +5519,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B220">
         <v>484530017072</v>
@@ -5530,7 +5530,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B221">
         <v>484530017073</v>
@@ -5541,7 +5541,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B222">
         <v>484530017121</v>
@@ -5552,7 +5552,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B223">
         <v>484530017122</v>
@@ -5563,7 +5563,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B224">
         <v>484530017123</v>
@@ -5574,7 +5574,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B225">
         <v>484530017131</v>
@@ -5585,7 +5585,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B226">
         <v>484530017132</v>
@@ -5596,7 +5596,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B227">
         <v>484530017133</v>
@@ -5607,7 +5607,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B228">
         <v>484530017141</v>
@@ -5618,7 +5618,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B229">
         <v>484530017142</v>
@@ -5629,7 +5629,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B230">
         <v>484530017143</v>
@@ -5640,7 +5640,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B231">
         <v>484530017161</v>
@@ -5651,7 +5651,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B232">
         <v>484530017162</v>
@@ -5662,7 +5662,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B233">
         <v>484530017181</v>
@@ -5673,7 +5673,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B234">
         <v>484530017182</v>
@@ -5684,7 +5684,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B235">
         <v>484530017183</v>
@@ -5695,7 +5695,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B236">
         <v>484530017184</v>
@@ -5706,7 +5706,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B237">
         <v>484530017191</v>
@@ -5717,7 +5717,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B238">
         <v>484530017192</v>
@@ -5728,7 +5728,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B239">
         <v>484530017193</v>
@@ -5739,7 +5739,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B240">
         <v>484530017221</v>
@@ -5750,7 +5750,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B241">
         <v>484530017222</v>
@@ -5761,7 +5761,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B242">
         <v>484530017223</v>
@@ -5772,7 +5772,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B243">
         <v>484530017281</v>
@@ -5783,7 +5783,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B244">
         <v>484530017282</v>
@@ -5794,7 +5794,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B245">
         <v>484530017283</v>
@@ -5805,7 +5805,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B246">
         <v>484530017284</v>
@@ -5816,7 +5816,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B247">
         <v>484530017285</v>
@@ -5827,7 +5827,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B248">
         <v>484530017291</v>
@@ -5838,7 +5838,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B249">
         <v>484530017292</v>
@@ -5849,7 +5849,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B250">
         <v>484530017293</v>
@@ -5860,7 +5860,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B251">
         <v>484530017331</v>
@@ -5871,7 +5871,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B252">
         <v>484530017332</v>
@@ -5882,7 +5882,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B253">
         <v>484530017371</v>
@@ -5893,7 +5893,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B254">
         <v>484530017372</v>
@@ -5904,7 +5904,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B255">
         <v>484530017373</v>
@@ -5915,7 +5915,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B256">
         <v>484530017381</v>
@@ -5926,7 +5926,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B257">
         <v>484530017382</v>
@@ -5937,7 +5937,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B258">
         <v>484530017383</v>
@@ -5948,7 +5948,7 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B259">
         <v>484530017384</v>
@@ -5959,7 +5959,7 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B260">
         <v>484530017385</v>
@@ -5970,7 +5970,7 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B261">
         <v>484530017401</v>
@@ -5981,7 +5981,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B262">
         <v>484530017402</v>
@@ -5992,7 +5992,7 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B263">
         <v>484530017411</v>
@@ -6003,7 +6003,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B264">
         <v>484530017412</v>
@@ -6014,7 +6014,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B265">
         <v>484530017421</v>
@@ -6025,7 +6025,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B266">
         <v>484530017422</v>
@@ -6036,7 +6036,7 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B267">
         <v>484530017451</v>
@@ -6047,7 +6047,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B268">
         <v>484530017452</v>
@@ -6058,7 +6058,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B269">
         <v>484530017461</v>
@@ -6069,7 +6069,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B270">
         <v>484530017462</v>
@@ -6080,7 +6080,7 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B271">
         <v>484530017471</v>
@@ -6091,7 +6091,7 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B272">
         <v>484530017472</v>
@@ -6102,7 +6102,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B273">
         <v>484530017473</v>
@@ -6113,7 +6113,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B274">
         <v>484530017481</v>
@@ -6124,7 +6124,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B275">
         <v>484530017482</v>
@@ -6135,7 +6135,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B276">
         <v>484530017491</v>
@@ -6146,7 +6146,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B277">
         <v>484530017492</v>
@@ -6157,7 +6157,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B278">
         <v>484530017493</v>
@@ -6168,7 +6168,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B279">
         <v>484530017494</v>
@@ -6179,7 +6179,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B280">
         <v>484530017501</v>
@@ -6190,7 +6190,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B281">
         <v>484530017502</v>
@@ -6201,7 +6201,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B282">
         <v>484530017503</v>
@@ -6212,7 +6212,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B283">
         <v>484530017511</v>
@@ -6223,7 +6223,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B284">
         <v>484530017512</v>
@@ -6234,7 +6234,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B285">
         <v>484530017521</v>
@@ -6245,7 +6245,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B286">
         <v>484530017522</v>
@@ -6256,7 +6256,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B287">
         <v>484530017523</v>
@@ -6267,7 +6267,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B288">
         <v>484530017531</v>
@@ -6278,7 +6278,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B289">
         <v>484530017541</v>
@@ -6289,7 +6289,7 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B290">
         <v>484530017542</v>
@@ -6300,7 +6300,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B291">
         <v>484530017543</v>
@@ -6311,7 +6311,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B292">
         <v>484530017551</v>
@@ -6322,7 +6322,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B293">
         <v>484530017552</v>
@@ -6333,7 +6333,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B294">
         <v>484530017561</v>
@@ -6344,7 +6344,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B295">
         <v>484530017562</v>
@@ -6355,7 +6355,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B296">
         <v>484530017571</v>
@@ -6366,7 +6366,7 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B297">
         <v>484530017572</v>
@@ -6377,7 +6377,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B298">
         <v>484530017601</v>
@@ -6388,7 +6388,7 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B299">
         <v>484530017602</v>
@@ -6399,7 +6399,7 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B300">
         <v>484530017611</v>
@@ -6410,7 +6410,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B301">
         <v>484530017612</v>
@@ -6421,7 +6421,7 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B302">
         <v>484530017641</v>
@@ -6432,7 +6432,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B303">
         <v>484530017642</v>
@@ -6443,7 +6443,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B304">
         <v>484530017651</v>
@@ -6454,7 +6454,7 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B305">
         <v>484530017652</v>
@@ -6465,7 +6465,7 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B306">
         <v>484530017661</v>
@@ -6476,7 +6476,7 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B307">
         <v>484530017662</v>
@@ -6487,7 +6487,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B308">
         <v>484530017663</v>
@@ -6498,7 +6498,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B309">
         <v>484530017681</v>
@@ -6509,7 +6509,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B310">
         <v>484530017682</v>
@@ -6520,7 +6520,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B311">
         <v>484530017691</v>
@@ -6531,7 +6531,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B312">
         <v>484530017692</v>
@@ -6542,7 +6542,7 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B313">
         <v>484530017701</v>
@@ -6553,7 +6553,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B314">
         <v>484530017702</v>
@@ -6564,7 +6564,7 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B315">
         <v>484530017703</v>
@@ -6575,7 +6575,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B316">
         <v>484530017711</v>
@@ -6586,7 +6586,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B317">
         <v>484530017712</v>
@@ -6597,7 +6597,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B318">
         <v>484530017721</v>
@@ -6608,7 +6608,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B319">
         <v>484530017722</v>
@@ -6619,7 +6619,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B320">
         <v>484530017731</v>
@@ -6630,7 +6630,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B321">
         <v>484530017732</v>
@@ -6641,7 +6641,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B322">
         <v>484530017733</v>
@@ -6652,7 +6652,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B323">
         <v>484530017741</v>
@@ -6663,7 +6663,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B324">
         <v>484530017742</v>
@@ -6674,7 +6674,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B325">
         <v>484530017743</v>
@@ -6685,7 +6685,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B326">
         <v>484530017751</v>
@@ -6696,7 +6696,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B327">
         <v>484530017752</v>
@@ -6707,7 +6707,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B328">
         <v>484530017761</v>
@@ -6718,7 +6718,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B329">
         <v>484530017762</v>
@@ -6729,7 +6729,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B330">
         <v>484530017771</v>
@@ -6740,7 +6740,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B331">
         <v>484530017772</v>
@@ -6751,7 +6751,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B332">
         <v>484530017781</v>
@@ -6762,7 +6762,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B333">
         <v>484530017782</v>
@@ -6773,7 +6773,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B334">
         <v>484530017791</v>
@@ -6784,7 +6784,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B335">
         <v>484530017792</v>
@@ -6795,7 +6795,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A336" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B336">
         <v>484530017793</v>
@@ -6806,7 +6806,7 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B337">
         <v>484530017801</v>
@@ -6817,7 +6817,7 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B338">
         <v>484530017802</v>
@@ -6828,7 +6828,7 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B339">
         <v>484530017811</v>
@@ -6839,7 +6839,7 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B340">
         <v>484530017812</v>
@@ -6850,7 +6850,7 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B341">
         <v>484530017821</v>
@@ -6861,7 +6861,7 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B342">
         <v>484530017822</v>
@@ -6872,7 +6872,7 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B343">
         <v>484530017823</v>
@@ -6883,7 +6883,7 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B344">
         <v>484530017831</v>
@@ -6894,7 +6894,7 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B345">
         <v>484530017832</v>
@@ -6905,7 +6905,7 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B346">
         <v>484530017841</v>
@@ -6916,7 +6916,7 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B347">
         <v>484530017842</v>
@@ -6927,7 +6927,7 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B348">
         <v>484530017851</v>
@@ -6938,7 +6938,7 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B349">
         <v>484530017852</v>
@@ -6949,7 +6949,7 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B350">
         <v>484530017861</v>
@@ -6960,7 +6960,7 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B351">
         <v>484530017862</v>
@@ -6971,7 +6971,7 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B352">
         <v>484530017863</v>
@@ -6982,7 +6982,7 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B353">
         <v>484530017864</v>
@@ -6993,7 +6993,7 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B354">
         <v>484530018041</v>
@@ -7004,7 +7004,7 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B355">
         <v>484530018042</v>
@@ -7015,7 +7015,7 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B356">
         <v>484530018043</v>
@@ -7026,7 +7026,7 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B357">
         <v>484530018051</v>
@@ -7037,7 +7037,7 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B358">
         <v>484530018052</v>
@@ -7048,7 +7048,7 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B359">
         <v>484530018061</v>
@@ -7059,7 +7059,7 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B360">
         <v>484530018062</v>
@@ -7070,7 +7070,7 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B361">
         <v>484530018063</v>
@@ -7081,7 +7081,7 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B362">
         <v>484530018064</v>
@@ -7092,7 +7092,7 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B363">
         <v>484530018111</v>
@@ -7103,7 +7103,7 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B364">
         <v>484530018112</v>
@@ -7114,7 +7114,7 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B365">
         <v>484530018121</v>
@@ -7125,7 +7125,7 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A366" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B366">
         <v>484530018122</v>
@@ -7136,7 +7136,7 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B367">
         <v>484530018123</v>
@@ -7147,7 +7147,7 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A368" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B368">
         <v>484530018131</v>
@@ -7158,7 +7158,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A369" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B369">
         <v>484530018132</v>
@@ -7169,7 +7169,7 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B370">
         <v>484530018171</v>
@@ -7180,7 +7180,7 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B371">
         <v>484530018172</v>
@@ -7191,7 +7191,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B372">
         <v>484530018173</v>
@@ -7202,7 +7202,7 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A373" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B373">
         <v>484530018181</v>
@@ -7213,7 +7213,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A374" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B374">
         <v>484530018182</v>
@@ -7224,7 +7224,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B375">
         <v>484530018183</v>
@@ -7235,7 +7235,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A376" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B376">
         <v>484530018191</v>
@@ -7246,7 +7246,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A377" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B377">
         <v>484530018192</v>
@@ -7257,7 +7257,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A378" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B378">
         <v>484530018201</v>
@@ -7268,7 +7268,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A379" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B379">
         <v>484530018202</v>
@@ -7279,7 +7279,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A380" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B380">
         <v>484530018203</v>
@@ -7290,7 +7290,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A381" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B381">
         <v>484530018211</v>
@@ -7301,7 +7301,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A382" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B382">
         <v>484530018212</v>
@@ -7312,7 +7312,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A383" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B383">
         <v>484530018213</v>
@@ -7323,7 +7323,7 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A384" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B384">
         <v>484530018221</v>
@@ -7334,7 +7334,7 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A385" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B385">
         <v>484530018222</v>
@@ -7345,7 +7345,7 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A386" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B386">
         <v>484530018223</v>
@@ -7356,7 +7356,7 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A387" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B387">
         <v>484530018224</v>
@@ -7367,7 +7367,7 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A388" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B388">
         <v>484530018231</v>
@@ -7378,7 +7378,7 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A389" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B389">
         <v>484530018232</v>
@@ -7389,7 +7389,7 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A390" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B390">
         <v>484530018233</v>
@@ -7400,7 +7400,7 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A391" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B391">
         <v>484530018241</v>
@@ -7411,7 +7411,7 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A392" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B392">
         <v>484530018242</v>
@@ -7422,7 +7422,7 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A393" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B393">
         <v>484530018261</v>
@@ -7433,7 +7433,7 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A394" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B394">
         <v>484530018262</v>
@@ -7444,7 +7444,7 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A395" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B395">
         <v>484530018281</v>
@@ -7455,7 +7455,7 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A396" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B396">
         <v>484530018282</v>
@@ -7466,7 +7466,7 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A397" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B397">
         <v>484530018283</v>
@@ -7477,7 +7477,7 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A398" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B398">
         <v>484530018291</v>
@@ -7488,7 +7488,7 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A399" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B399">
         <v>484530018292</v>
@@ -7499,7 +7499,7 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A400" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B400">
         <v>484530018321</v>
@@ -7510,7 +7510,7 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A401" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B401">
         <v>484530018322</v>
@@ -7521,7 +7521,7 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A402" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B402">
         <v>484530018331</v>
@@ -7532,7 +7532,7 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A403" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B403">
         <v>484530018332</v>
@@ -7543,7 +7543,7 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A404" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B404">
         <v>484530018333</v>
@@ -7554,7 +7554,7 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A405" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B405">
         <v>484530018334</v>
@@ -7565,7 +7565,7 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A406" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B406">
         <v>484530018341</v>
@@ -7576,7 +7576,7 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A407" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B407">
         <v>484530018342</v>
@@ -7587,7 +7587,7 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A408" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B408">
         <v>484530018351</v>
@@ -7598,7 +7598,7 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A409" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B409">
         <v>484530018352</v>
@@ -7609,7 +7609,7 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A410" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B410">
         <v>484530018353</v>
@@ -7620,7 +7620,7 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A411" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B411">
         <v>484530018391</v>
@@ -7631,7 +7631,7 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A412" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B412">
         <v>484530018392</v>
@@ -7642,7 +7642,7 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A413" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B413">
         <v>484530018401</v>
@@ -7653,7 +7653,7 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A414" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B414">
         <v>484530018402</v>
@@ -7664,7 +7664,7 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A415" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B415">
         <v>484530018403</v>
@@ -7675,7 +7675,7 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A416" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B416">
         <v>484530018411</v>
@@ -7686,7 +7686,7 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A417" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B417">
         <v>484530018412</v>
@@ -7697,7 +7697,7 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A418" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B418">
         <v>484530018413</v>
@@ -7708,7 +7708,7 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A419" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B419">
         <v>484530018414</v>
@@ -7719,7 +7719,7 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A420" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B420">
         <v>484530018421</v>
@@ -7730,7 +7730,7 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A421" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B421">
         <v>484530018422</v>
@@ -7741,7 +7741,7 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A422" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B422">
         <v>484530018431</v>
@@ -7752,7 +7752,7 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A423" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B423">
         <v>484530018432</v>
@@ -7763,7 +7763,7 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A424" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B424">
         <v>484530018441</v>
@@ -7774,7 +7774,7 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A425" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B425">
         <v>484530018442</v>
@@ -7785,7 +7785,7 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A426" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B426">
         <v>484530018443</v>
@@ -7796,7 +7796,7 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A427" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B427">
         <v>484530018451</v>
@@ -7807,7 +7807,7 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A428" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B428">
         <v>484530018452</v>
@@ -7818,7 +7818,7 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A429" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B429">
         <v>484530018461</v>
@@ -7829,7 +7829,7 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A430" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B430">
         <v>484530018462</v>
@@ -7840,7 +7840,7 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A431" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B431">
         <v>484530018471</v>
@@ -7851,7 +7851,7 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A432" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B432">
         <v>484530018472</v>
@@ -7862,7 +7862,7 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A433" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B433">
         <v>484530018481</v>
@@ -7873,7 +7873,7 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A434" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B434">
         <v>484530018482</v>
@@ -7884,7 +7884,7 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A435" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B435">
         <v>484530018483</v>
@@ -7895,7 +7895,7 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A436" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B436">
         <v>484530018491</v>
@@ -7906,7 +7906,7 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A437" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B437">
         <v>484530018492</v>
@@ -7917,7 +7917,7 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A438" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B438">
         <v>484530018493</v>
@@ -7928,7 +7928,7 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A439" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B439">
         <v>484530018494</v>
@@ -7939,7 +7939,7 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A440" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B440">
         <v>484530018501</v>
@@ -7950,7 +7950,7 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A441" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B441">
         <v>484530018502</v>
@@ -7961,7 +7961,7 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A442" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B442">
         <v>484530018503</v>
@@ -7972,7 +7972,7 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A443" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B443">
         <v>484530018511</v>
@@ -7983,7 +7983,7 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A444" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B444">
         <v>484530018512</v>
@@ -7994,7 +7994,7 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A445" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B445">
         <v>484530018513</v>
@@ -8005,7 +8005,7 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A446" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B446">
         <v>484530018514</v>
@@ -8016,7 +8016,7 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A447" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B447">
         <v>484530018531</v>
@@ -8027,7 +8027,7 @@
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A448" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B448">
         <v>484530018532</v>
@@ -8038,7 +8038,7 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A449" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B449">
         <v>484530018541</v>
@@ -8049,7 +8049,7 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A450" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B450">
         <v>484530018542</v>
@@ -8060,7 +8060,7 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A451" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B451">
         <v>484530018543</v>
@@ -8071,7 +8071,7 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A452" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B452">
         <v>484530018551</v>
@@ -8082,7 +8082,7 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A453" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B453">
         <v>484530018552</v>
@@ -8093,7 +8093,7 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A454" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B454">
         <v>484530018553</v>
@@ -8104,7 +8104,7 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A455" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B455">
         <v>484530018554</v>
@@ -8115,7 +8115,7 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A456" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B456">
         <v>484530018555</v>
@@ -8126,7 +8126,7 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A457" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B457">
         <v>484530018561</v>
@@ -8137,7 +8137,7 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A458" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B458">
         <v>484530018562</v>
@@ -8148,7 +8148,7 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A459" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B459">
         <v>484530018571</v>
@@ -8159,7 +8159,7 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A460" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B460">
         <v>484530018572</v>
@@ -8170,7 +8170,7 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A461" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B461">
         <v>484530018581</v>
@@ -8181,7 +8181,7 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A462" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B462">
         <v>484530018582</v>
@@ -8192,7 +8192,7 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A463" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B463">
         <v>484530018583</v>
@@ -8203,7 +8203,7 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A464" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B464">
         <v>484530018584</v>
@@ -8214,7 +8214,7 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A465" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B465">
         <v>484530018585</v>
@@ -8225,7 +8225,7 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A466" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B466">
         <v>484530018591</v>
@@ -8236,7 +8236,7 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A467" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B467">
         <v>484530018592</v>
@@ -8247,7 +8247,7 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A468" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B468">
         <v>484530018601</v>
@@ -8258,7 +8258,7 @@
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A469" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B469">
         <v>484530018602</v>
@@ -8269,7 +8269,7 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A470" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B470">
         <v>484530018611</v>
@@ -8280,7 +8280,7 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A471" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B471">
         <v>484530018612</v>
@@ -8291,7 +8291,7 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A472" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B472">
         <v>484530018621</v>
@@ -8302,7 +8302,7 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A473" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B473">
         <v>484530018622</v>
@@ -8313,7 +8313,7 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A474" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B474">
         <v>484530018631</v>
@@ -8324,7 +8324,7 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A475" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B475">
         <v>484530018632</v>
@@ -8335,7 +8335,7 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A476" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B476">
         <v>484530018641</v>
@@ -8346,7 +8346,7 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A477" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B477">
         <v>484530018642</v>
@@ -8357,7 +8357,7 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A478" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B478">
         <v>484530019011</v>
@@ -8368,7 +8368,7 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A479" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B479">
         <v>484530019012</v>
@@ -8379,7 +8379,7 @@
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A480" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B480">
         <v>484530019013</v>
@@ -8390,7 +8390,7 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A481" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B481">
         <v>484530019081</v>
@@ -8401,7 +8401,7 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A482" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B482">
         <v>484530019082</v>
@@ -8412,7 +8412,7 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A483" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B483">
         <v>484530019101</v>
@@ -8423,7 +8423,7 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A484" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B484">
         <v>484530019102</v>
@@ -8434,7 +8434,7 @@
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A485" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B485">
         <v>484530019103</v>
@@ -8445,7 +8445,7 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A486" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B486">
         <v>484530019104</v>
@@ -8456,7 +8456,7 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A487" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B487">
         <v>484530019111</v>
@@ -8467,7 +8467,7 @@
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A488" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B488">
         <v>484530019112</v>
@@ -8478,7 +8478,7 @@
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A489" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B489">
         <v>484530019121</v>
@@ -8489,7 +8489,7 @@
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A490" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B490">
         <v>484530019122</v>
@@ -8500,7 +8500,7 @@
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A491" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B491">
         <v>484530019131</v>
@@ -8511,7 +8511,7 @@
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A492" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B492">
         <v>484530019132</v>
@@ -8522,7 +8522,7 @@
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A493" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B493">
         <v>484530019141</v>
@@ -8533,7 +8533,7 @@
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A494" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B494">
         <v>484530019142</v>
@@ -8544,7 +8544,7 @@
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A495" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B495">
         <v>484530019143</v>
@@ -8555,7 +8555,7 @@
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A496" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B496">
         <v>484530019151</v>
@@ -8566,7 +8566,7 @@
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A497" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B497">
         <v>484530019161</v>
@@ -8577,7 +8577,7 @@
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A498" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B498">
         <v>484530019162</v>
@@ -8588,7 +8588,7 @@
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A499" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B499">
         <v>484530019171</v>
@@ -8599,7 +8599,7 @@
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A500" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B500">
         <v>484530019172</v>
@@ -8610,7 +8610,7 @@
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A501" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B501">
         <v>484530019173</v>
@@ -8621,7 +8621,7 @@
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A502" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B502">
         <v>484530019174</v>
@@ -8632,7 +8632,7 @@
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A503" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B503">
         <v>484530019181</v>
@@ -8643,7 +8643,7 @@
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A504" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B504">
         <v>484530019182</v>
@@ -8654,7 +8654,7 @@
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A505" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B505">
         <v>484530019183</v>
@@ -8665,7 +8665,7 @@
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A506" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B506">
         <v>484530019191</v>
@@ -8676,7 +8676,7 @@
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A507" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B507">
         <v>484530019192</v>
@@ -8687,7 +8687,7 @@
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A508" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B508">
         <v>484530019193</v>
@@ -8698,7 +8698,7 @@
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A509" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B509">
         <v>484530020021</v>
@@ -8709,7 +8709,7 @@
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A510" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B510">
         <v>484530020022</v>
@@ -8720,7 +8720,7 @@
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A511" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B511">
         <v>484530020031</v>
@@ -8731,7 +8731,7 @@
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A512" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B512">
         <v>484530020032</v>
@@ -8742,7 +8742,7 @@
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A513" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B513">
         <v>484530020041</v>
@@ -8753,7 +8753,7 @@
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A514" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B514">
         <v>484530020042</v>
@@ -8764,7 +8764,7 @@
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A515" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B515">
         <v>484530020051</v>
@@ -8775,7 +8775,7 @@
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A516" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B516">
         <v>484530020052</v>
@@ -8786,7 +8786,7 @@
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A517" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B517">
         <v>484530020053</v>
@@ -8797,7 +8797,7 @@
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A518" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B518">
         <v>484530021041</v>
@@ -8808,7 +8808,7 @@
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A519" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B519">
         <v>484530021042</v>
@@ -8819,7 +8819,7 @@
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A520" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B520">
         <v>484530021051</v>
@@ -8830,7 +8830,7 @@
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A521" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B521">
         <v>484530021052</v>
@@ -8841,7 +8841,7 @@
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A522" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B522">
         <v>484530021053</v>
@@ -8852,7 +8852,7 @@
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A523" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B523">
         <v>484530021061</v>
@@ -8863,7 +8863,7 @@
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A524" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B524">
         <v>484530021062</v>
@@ -8874,7 +8874,7 @@
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A525" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B525">
         <v>484530021063</v>
@@ -8885,7 +8885,7 @@
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A526" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B526">
         <v>484530021071</v>
@@ -8896,7 +8896,7 @@
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A527" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B527">
         <v>484530021072</v>
@@ -8907,7 +8907,7 @@
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A528" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B528">
         <v>484530021073</v>
@@ -8918,7 +8918,7 @@
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A529" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B529">
         <v>484530021074</v>
@@ -8929,7 +8929,7 @@
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A530" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B530">
         <v>484530021081</v>
@@ -8940,7 +8940,7 @@
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A531" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B531">
         <v>484530021082</v>
@@ -8951,7 +8951,7 @@
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A532" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B532">
         <v>484530021091</v>
@@ -8962,7 +8962,7 @@
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A533" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B533">
         <v>484530021092</v>
@@ -8973,7 +8973,7 @@
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A534" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B534">
         <v>484530021093</v>
@@ -8984,7 +8984,7 @@
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A535" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B535">
         <v>484530021101</v>
@@ -8995,7 +8995,7 @@
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A536" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B536">
         <v>484530021102</v>
@@ -9006,7 +9006,7 @@
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A537" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B537">
         <v>484530021111</v>
@@ -9017,7 +9017,7 @@
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A538" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B538">
         <v>484530021112</v>
@@ -9028,7 +9028,7 @@
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A539" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B539">
         <v>484530021113</v>
@@ -9039,7 +9039,7 @@
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A540" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B540">
         <v>484530021121</v>
@@ -9050,7 +9050,7 @@
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A541" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B541">
         <v>484530021122</v>
@@ -9061,7 +9061,7 @@
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A542" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B542">
         <v>484530021123</v>
@@ -9072,7 +9072,7 @@
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A543" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B543">
         <v>484530021131</v>
@@ -9083,7 +9083,7 @@
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A544" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B544">
         <v>484530021132</v>
@@ -9094,7 +9094,7 @@
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A545" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B545">
         <v>484530021133</v>
@@ -9105,7 +9105,7 @@
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A546" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B546">
         <v>484530022011</v>
@@ -9116,7 +9116,7 @@
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A547" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B547">
         <v>484530022012</v>
@@ -9127,7 +9127,7 @@
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A548" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B548">
         <v>484530022021</v>
@@ -9138,7 +9138,7 @@
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A549" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B549">
         <v>484530022022</v>
@@ -9149,7 +9149,7 @@
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A550" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B550">
         <v>484530022023</v>
@@ -9160,7 +9160,7 @@
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A551" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B551">
         <v>484530022071</v>
@@ -9171,7 +9171,7 @@
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A552" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B552">
         <v>484530022072</v>
@@ -9182,7 +9182,7 @@
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A553" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B553">
         <v>484530022081</v>
@@ -9193,7 +9193,7 @@
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A554" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B554">
         <v>484530022082</v>
@@ -9204,7 +9204,7 @@
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A555" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B555">
         <v>484530022083</v>
@@ -9215,7 +9215,7 @@
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A556" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B556">
         <v>484530022084</v>
@@ -9226,7 +9226,7 @@
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A557" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B557">
         <v>484530022085</v>
@@ -9237,7 +9237,7 @@
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A558" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B558">
         <v>484530022091</v>
@@ -9248,7 +9248,7 @@
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A559" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B559">
         <v>484530022092</v>
@@ -9259,7 +9259,7 @@
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A560" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B560">
         <v>484530022093</v>
@@ -9270,7 +9270,7 @@
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A561" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B561">
         <v>484530022101</v>
@@ -9281,7 +9281,7 @@
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A562" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B562">
         <v>484530022102</v>
@@ -9292,7 +9292,7 @@
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A563" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B563">
         <v>484530022111</v>
@@ -9303,7 +9303,7 @@
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A564" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B564">
         <v>484530022121</v>
@@ -9314,7 +9314,7 @@
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A565" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B565">
         <v>484530023041</v>
@@ -9325,7 +9325,7 @@
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A566" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B566">
         <v>484530023042</v>
@@ -9336,7 +9336,7 @@
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A567" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B567">
         <v>484530023043</v>
@@ -9347,7 +9347,7 @@
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A568" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B568">
         <v>484530023071</v>
@@ -9358,7 +9358,7 @@
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A569" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B569">
         <v>484530023072</v>
@@ -9369,7 +9369,7 @@
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A570" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B570">
         <v>484530023073</v>
@@ -9380,7 +9380,7 @@
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A571" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B571">
         <v>484530023074</v>
@@ -9391,7 +9391,7 @@
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A572" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B572">
         <v>484530023081</v>
@@ -9402,7 +9402,7 @@
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A573" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B573">
         <v>484530023082</v>
@@ -9413,7 +9413,7 @@
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A574" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B574">
         <v>484530023083</v>
@@ -9424,7 +9424,7 @@
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A575" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B575">
         <v>484530023084</v>
@@ -9435,7 +9435,7 @@
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A576" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B576">
         <v>484530023101</v>
@@ -9446,7 +9446,7 @@
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A577" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B577">
         <v>484530023102</v>
@@ -9457,7 +9457,7 @@
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A578" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B578">
         <v>484530023121</v>
@@ -9468,7 +9468,7 @@
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A579" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B579">
         <v>484530023122</v>
@@ -9479,7 +9479,7 @@
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A580" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B580">
         <v>484530023123</v>
@@ -9490,7 +9490,7 @@
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A581" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B581">
         <v>484530023131</v>
@@ -9501,7 +9501,7 @@
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A582" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B582">
         <v>484530023132</v>
@@ -9512,7 +9512,7 @@
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A583" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B583">
         <v>484530023141</v>
@@ -9523,7 +9523,7 @@
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A584" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B584">
         <v>484530023142</v>
@@ -9534,7 +9534,7 @@
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A585" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B585">
         <v>484530023143</v>
@@ -9545,7 +9545,7 @@
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A586" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B586">
         <v>484530023144</v>
@@ -9556,7 +9556,7 @@
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A587" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B587">
         <v>484530023151</v>
@@ -9567,7 +9567,7 @@
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A588" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B588">
         <v>484530023152</v>
@@ -9578,7 +9578,7 @@
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A589" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B589">
         <v>484530023161</v>
@@ -9589,7 +9589,7 @@
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A590" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B590">
         <v>484530023162</v>
@@ -9600,7 +9600,7 @@
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A591" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B591">
         <v>484530023163</v>
@@ -9611,7 +9611,7 @@
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A592" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B592">
         <v>484530023171</v>
@@ -9622,7 +9622,7 @@
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A593" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B593">
         <v>484530023172</v>
@@ -9633,7 +9633,7 @@
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A594" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B594">
         <v>484530023181</v>
@@ -9644,7 +9644,7 @@
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A595" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B595">
         <v>484530023182</v>
@@ -9655,7 +9655,7 @@
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A596" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B596">
         <v>484530023191</v>
@@ -9666,7 +9666,7 @@
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A597" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B597">
         <v>484530024021</v>
@@ -9677,7 +9677,7 @@
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A598" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B598">
         <v>484530024022</v>
@@ -9688,7 +9688,7 @@
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A599" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B599">
         <v>484530024023</v>
@@ -9699,7 +9699,7 @@
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A600" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B600">
         <v>484530024024</v>
@@ -9710,7 +9710,7 @@
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A601" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B601">
         <v>484530024031</v>
@@ -9721,7 +9721,7 @@
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A602" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B602">
         <v>484530024032</v>
@@ -9732,7 +9732,7 @@
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A603" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B603">
         <v>484530024071</v>
@@ -9743,7 +9743,7 @@
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A604" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B604">
         <v>484530024072</v>
@@ -9754,7 +9754,7 @@
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A605" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B605">
         <v>484530024091</v>
@@ -9765,7 +9765,7 @@
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A606" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B606">
         <v>484530024092</v>
@@ -9776,7 +9776,7 @@
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A607" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B607">
         <v>484530024093</v>
@@ -9787,7 +9787,7 @@
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A608" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B608">
         <v>484530024101</v>
@@ -9798,7 +9798,7 @@
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A609" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B609">
         <v>484530024102</v>
@@ -9809,7 +9809,7 @@
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A610" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B610">
         <v>484530024111</v>
@@ -9820,7 +9820,7 @@
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A611" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B611">
         <v>484530024112</v>
@@ -9831,7 +9831,7 @@
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A612" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B612">
         <v>484530024113</v>
@@ -9842,7 +9842,7 @@
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A613" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B613">
         <v>484530024121</v>
@@ -9853,7 +9853,7 @@
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A614" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B614">
         <v>484530024122</v>
@@ -9864,7 +9864,7 @@
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A615" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B615">
         <v>484530024123</v>
@@ -9875,7 +9875,7 @@
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A616" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B616">
         <v>484530024131</v>
@@ -9886,7 +9886,7 @@
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A617" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B617">
         <v>484530024132</v>
@@ -9897,7 +9897,7 @@
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A618" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B618">
         <v>484530024133</v>
@@ -9908,7 +9908,7 @@
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A619" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B619">
         <v>484530024191</v>
@@ -9919,7 +9919,7 @@
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A620" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B620">
         <v>484530024192</v>
@@ -9930,7 +9930,7 @@
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A621" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B621">
         <v>484530024211</v>
@@ -9941,7 +9941,7 @@
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A622" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B622">
         <v>484530024212</v>
@@ -9952,7 +9952,7 @@
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A623" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B623">
         <v>484530024213</v>
@@ -9963,7 +9963,7 @@
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A624" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B624">
         <v>484530024221</v>
@@ -9974,7 +9974,7 @@
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A625" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B625">
         <v>484530024222</v>
@@ -9985,7 +9985,7 @@
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A626" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B626">
         <v>484530024223</v>
@@ -9996,7 +9996,7 @@
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A627" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B627">
         <v>484530024231</v>
@@ -10007,7 +10007,7 @@
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A628" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B628">
         <v>484530024232</v>
@@ -10018,7 +10018,7 @@
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A629" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B629">
         <v>484530024233</v>
@@ -10029,7 +10029,7 @@
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A630" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B630">
         <v>484530024241</v>
@@ -10040,7 +10040,7 @@
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A631" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B631">
         <v>484530024242</v>
@@ -10051,7 +10051,7 @@
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A632" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B632">
         <v>484530024251</v>
@@ -10062,7 +10062,7 @@
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A633" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B633">
         <v>484530024252</v>
@@ -10073,7 +10073,7 @@
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A634" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B634">
         <v>484530024261</v>
@@ -10084,7 +10084,7 @@
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A635" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B635">
         <v>484530024262</v>
@@ -10095,7 +10095,7 @@
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A636" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B636">
         <v>484530024271</v>
@@ -10106,7 +10106,7 @@
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A637" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B637">
         <v>484530024272</v>
@@ -10117,7 +10117,7 @@
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A638" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B638">
         <v>484530024273</v>
@@ -10128,7 +10128,7 @@
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A639" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B639">
         <v>484530024274</v>
@@ -10139,7 +10139,7 @@
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A640" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B640">
         <v>484530024281</v>
@@ -10150,7 +10150,7 @@
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A641" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B641">
         <v>484530024282</v>
@@ -10161,7 +10161,7 @@
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A642" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B642">
         <v>484530024291</v>
@@ -10172,7 +10172,7 @@
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A643" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B643">
         <v>484530024301</v>
@@ -10183,7 +10183,7 @@
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A644" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B644">
         <v>484530024302</v>
@@ -10194,7 +10194,7 @@
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A645" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B645">
         <v>484530024303</v>
@@ -10205,7 +10205,7 @@
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A646" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B646">
         <v>484530024311</v>
@@ -10216,7 +10216,7 @@
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A647" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B647">
         <v>484530024312</v>
@@ -10227,7 +10227,7 @@
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A648" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B648">
         <v>484530024313</v>
@@ -10238,7 +10238,7 @@
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A649" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B649">
         <v>484530024321</v>
@@ -10249,7 +10249,7 @@
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A650" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B650">
         <v>484530024322</v>
@@ -10260,7 +10260,7 @@
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A651" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B651">
         <v>484530024331</v>
@@ -10271,7 +10271,7 @@
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A652" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B652">
         <v>484530024332</v>
@@ -10282,7 +10282,7 @@
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A653" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B653">
         <v>484530024341</v>
@@ -10293,7 +10293,7 @@
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A654" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B654">
         <v>484530024351</v>
@@ -10304,7 +10304,7 @@
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A655" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B655">
         <v>484530024352</v>
@@ -10315,7 +10315,7 @@
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A656" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B656">
         <v>484530024361</v>
@@ -10326,7 +10326,7 @@
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A657" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B657">
         <v>484530025001</v>
@@ -10337,7 +10337,7 @@
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A658" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B658">
         <v>484530025002</v>
@@ -10348,7 +10348,7 @@
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A659" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B659">
         <v>484530025003</v>
@@ -10359,7 +10359,7 @@
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A660" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B660">
         <v>484530025004</v>
@@ -10370,7 +10370,7 @@
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A661" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B661">
         <v>484539800001</v>
@@ -10381,7 +10381,7 @@
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A662" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B662">
         <v>484910201051</v>
@@ -10392,7 +10392,7 @@
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A663" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B663">
         <v>484910201052</v>
@@ -10403,7 +10403,7 @@
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A664" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B664">
         <v>484910201053</v>
@@ -10414,7 +10414,7 @@
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A665" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B665">
         <v>484910201061</v>
@@ -10425,7 +10425,7 @@
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A666" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B666">
         <v>484910201062</v>
@@ -10436,7 +10436,7 @@
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A667" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B667">
         <v>484910201071</v>
@@ -10447,7 +10447,7 @@
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A668" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B668">
         <v>484910201072</v>
@@ -10458,7 +10458,7 @@
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A669" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B669">
         <v>484910201073</v>
@@ -10469,7 +10469,7 @@
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A670" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B670">
         <v>484910201081</v>
@@ -10480,7 +10480,7 @@
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A671" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B671">
         <v>484910201082</v>
@@ -10491,7 +10491,7 @@
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A672" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B672">
         <v>484910201083</v>
@@ -10502,7 +10502,7 @@
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A673" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B673">
         <v>484910201091</v>
@@ -10513,7 +10513,7 @@
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A674" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B674">
         <v>484910201092</v>
@@ -10524,7 +10524,7 @@
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A675" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B675">
         <v>484910201093</v>
@@ -10535,7 +10535,7 @@
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A676" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B676">
         <v>484910201101</v>
@@ -10546,7 +10546,7 @@
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A677" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B677">
         <v>484910201102</v>
@@ -10557,7 +10557,7 @@
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A678" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B678">
         <v>484910201103</v>
@@ -10568,7 +10568,7 @@
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A679" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B679">
         <v>484910201111</v>
@@ -10579,7 +10579,7 @@
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A680" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B680">
         <v>484910201112</v>
@@ -10590,7 +10590,7 @@
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A681" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B681">
         <v>484910201121</v>
@@ -10601,7 +10601,7 @@
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A682" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B682">
         <v>484910201122</v>
@@ -10612,7 +10612,7 @@
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A683" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B683">
         <v>484910201131</v>
@@ -10623,7 +10623,7 @@
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A684" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B684">
         <v>484910201132</v>
@@ -10634,7 +10634,7 @@
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A685" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B685">
         <v>484910201141</v>
@@ -10645,7 +10645,7 @@
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A686" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B686">
         <v>484910201142</v>
@@ -10656,7 +10656,7 @@
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A687" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B687">
         <v>484910201143</v>
@@ -10667,7 +10667,7 @@
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A688" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B688">
         <v>484910201151</v>
@@ -10678,7 +10678,7 @@
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A689" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B689">
         <v>484910201152</v>
@@ -10689,7 +10689,7 @@
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A690" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B690">
         <v>484910202011</v>
@@ -10700,7 +10700,7 @@
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A691" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B691">
         <v>484910202012</v>
@@ -10711,7 +10711,7 @@
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A692" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B692">
         <v>484910202021</v>
@@ -10722,7 +10722,7 @@
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A693" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B693">
         <v>484910202022</v>
@@ -10733,7 +10733,7 @@
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A694" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B694">
         <v>484910202023</v>
@@ -10744,7 +10744,7 @@
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A695" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B695">
         <v>484910202031</v>
@@ -10755,7 +10755,7 @@
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A696" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B696">
         <v>484910202032</v>
@@ -10766,7 +10766,7 @@
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A697" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B697">
         <v>484910202041</v>
@@ -10777,7 +10777,7 @@
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A698" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B698">
         <v>484910202042</v>
@@ -10788,7 +10788,7 @@
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A699" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B699">
         <v>484910202043</v>
@@ -10799,7 +10799,7 @@
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A700" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B700">
         <v>484910202044</v>
@@ -10810,7 +10810,7 @@
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A701" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B701">
         <v>484910203011</v>
@@ -10821,7 +10821,7 @@
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A702" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B702">
         <v>484910203012</v>
@@ -10832,7 +10832,7 @@
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A703" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B703">
         <v>484910203013</v>
@@ -10843,7 +10843,7 @@
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A704" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B704">
         <v>484910203021</v>
@@ -10854,7 +10854,7 @@
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A705" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B705">
         <v>484910203022</v>
@@ -10865,7 +10865,7 @@
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A706" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B706">
         <v>484910203101</v>
@@ -10876,7 +10876,7 @@
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A707" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B707">
         <v>484910203102</v>
@@ -10887,7 +10887,7 @@
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A708" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B708">
         <v>484910203111</v>
@@ -10898,7 +10898,7 @@
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A709" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B709">
         <v>484910203112</v>
@@ -10909,7 +10909,7 @@
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A710" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B710">
         <v>484910203121</v>
@@ -10920,7 +10920,7 @@
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A711" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B711">
         <v>484910203122</v>
@@ -10931,7 +10931,7 @@
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A712" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B712">
         <v>484910203123</v>
@@ -10942,7 +10942,7 @@
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A713" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B713">
         <v>484910203124</v>
@@ -10953,7 +10953,7 @@
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A714" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B714">
         <v>484910203131</v>
@@ -10964,7 +10964,7 @@
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A715" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B715">
         <v>484910203132</v>
@@ -10975,7 +10975,7 @@
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A716" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B716">
         <v>484910203133</v>
@@ -10986,7 +10986,7 @@
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A717" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B717">
         <v>484910203134</v>
@@ -10997,7 +10997,7 @@
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A718" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B718">
         <v>484910203141</v>
@@ -11008,7 +11008,7 @@
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A719" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B719">
         <v>484910203142</v>
@@ -11019,7 +11019,7 @@
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A720" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B720">
         <v>484910203143</v>
@@ -11030,7 +11030,7 @@
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A721" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B721">
         <v>484910203151</v>
@@ -11041,7 +11041,7 @@
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A722" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B722">
         <v>484910203152</v>
@@ -11052,7 +11052,7 @@
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A723" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B723">
         <v>484910203161</v>
@@ -11063,7 +11063,7 @@
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A724" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B724">
         <v>484910203162</v>
@@ -11074,7 +11074,7 @@
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A725" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B725">
         <v>484910203171</v>
@@ -11085,7 +11085,7 @@
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A726" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B726">
         <v>484910203172</v>
@@ -11096,7 +11096,7 @@
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A727" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B727">
         <v>484910203181</v>
@@ -11107,7 +11107,7 @@
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A728" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B728">
         <v>484910203182</v>
@@ -11118,7 +11118,7 @@
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A729" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B729">
         <v>484910203183</v>
@@ -11129,7 +11129,7 @@
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A730" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B730">
         <v>484910203191</v>
@@ -11140,7 +11140,7 @@
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A731" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B731">
         <v>484910203192</v>
@@ -11151,7 +11151,7 @@
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A732" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B732">
         <v>484910203201</v>
@@ -11162,7 +11162,7 @@
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A733" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B733">
         <v>484910203202</v>
@@ -11173,7 +11173,7 @@
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A734" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B734">
         <v>484910203203</v>
@@ -11184,7 +11184,7 @@
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A735" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B735">
         <v>484910203204</v>
@@ -11195,7 +11195,7 @@
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A736" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B736">
         <v>484910203211</v>
@@ -11206,7 +11206,7 @@
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A737" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B737">
         <v>484910203212</v>
@@ -11217,7 +11217,7 @@
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A738" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B738">
         <v>484910203221</v>
@@ -11228,7 +11228,7 @@
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A739" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B739">
         <v>484910203222</v>
@@ -11239,7 +11239,7 @@
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A740" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B740">
         <v>484910203223</v>
@@ -11250,7 +11250,7 @@
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A741" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B741">
         <v>484910203224</v>
@@ -11261,7 +11261,7 @@
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A742" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B742">
         <v>484910203231</v>
@@ -11272,7 +11272,7 @@
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A743" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B743">
         <v>484910203232</v>
@@ -11283,7 +11283,7 @@
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A744" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B744">
         <v>484910203241</v>
@@ -11294,7 +11294,7 @@
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A745" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B745">
         <v>484910203242</v>
@@ -11305,7 +11305,7 @@
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A746" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B746">
         <v>484910203243</v>
@@ -11316,7 +11316,7 @@
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A747" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B747">
         <v>484910203251</v>
@@ -11327,7 +11327,7 @@
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A748" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B748">
         <v>484910203252</v>
@@ -11338,7 +11338,7 @@
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A749" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B749">
         <v>484910203261</v>
@@ -11349,7 +11349,7 @@
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A750" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B750">
         <v>484910203262</v>
@@ -11360,7 +11360,7 @@
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A751" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B751">
         <v>484910203271</v>
@@ -11371,7 +11371,7 @@
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A752" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B752">
         <v>484910203272</v>
@@ -11382,7 +11382,7 @@
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A753" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B753">
         <v>484910203281</v>
@@ -11393,7 +11393,7 @@
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A754" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B754">
         <v>484910203282</v>
@@ -11404,7 +11404,7 @@
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A755" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B755">
         <v>484910203283</v>
@@ -11415,7 +11415,7 @@
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A756" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B756">
         <v>484910204031</v>
@@ -11426,7 +11426,7 @@
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A757" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B757">
         <v>484910204032</v>
@@ -11437,7 +11437,7 @@
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A758" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B758">
         <v>484910204041</v>
@@ -11448,7 +11448,7 @@
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A759" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B759">
         <v>484910204042</v>
@@ -11459,7 +11459,7 @@
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A760" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B760">
         <v>484910204051</v>
@@ -11470,7 +11470,7 @@
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A761" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B761">
         <v>484910204052</v>
@@ -11481,7 +11481,7 @@
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A762" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B762">
         <v>484910204053</v>
@@ -11492,7 +11492,7 @@
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A763" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B763">
         <v>484910204054</v>
@@ -11503,7 +11503,7 @@
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A764" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B764">
         <v>484910204061</v>
@@ -11514,7 +11514,7 @@
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A765" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B765">
         <v>484910204062</v>
@@ -11525,7 +11525,7 @@
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A766" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B766">
         <v>484910204081</v>
@@ -11536,7 +11536,7 @@
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A767" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B767">
         <v>484910204082</v>
@@ -11547,7 +11547,7 @@
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A768" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B768">
         <v>484910204083</v>
@@ -11558,7 +11558,7 @@
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A769" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B769">
         <v>484910204091</v>
@@ -11569,7 +11569,7 @@
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A770" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B770">
         <v>484910204092</v>
@@ -11580,7 +11580,7 @@
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A771" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B771">
         <v>484910204101</v>
@@ -11591,7 +11591,7 @@
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A772" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B772">
         <v>484910204102</v>
@@ -11602,7 +11602,7 @@
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A773" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B773">
         <v>484910204103</v>
@@ -11613,7 +11613,7 @@
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A774" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B774">
         <v>484910204104</v>
@@ -11624,7 +11624,7 @@
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A775" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B775">
         <v>484910204111</v>
@@ -11635,7 +11635,7 @@
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A776" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B776">
         <v>484910204112</v>
@@ -11646,7 +11646,7 @@
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A777" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B777">
         <v>484910204113</v>
@@ -11657,7 +11657,7 @@
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A778" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B778">
         <v>484910205031</v>
@@ -11668,7 +11668,7 @@
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A779" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B779">
         <v>484910205032</v>
@@ -11679,7 +11679,7 @@
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A780" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B780">
         <v>484910205033</v>
@@ -11690,7 +11690,7 @@
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A781" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B781">
         <v>484910205041</v>
@@ -11701,7 +11701,7 @@
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A782" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B782">
         <v>484910205042</v>
@@ -11712,7 +11712,7 @@
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A783" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B783">
         <v>484910205043</v>
@@ -11723,7 +11723,7 @@
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A784" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B784">
         <v>484910205044</v>
@@ -11734,7 +11734,7 @@
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A785" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B785">
         <v>484910205051</v>
@@ -11745,7 +11745,7 @@
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A786" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B786">
         <v>484910205052</v>
@@ -11756,7 +11756,7 @@
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A787" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B787">
         <v>484910205061</v>
@@ -11767,7 +11767,7 @@
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A788" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B788">
         <v>484910205062</v>
@@ -11778,7 +11778,7 @@
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A789" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B789">
         <v>484910205063</v>
@@ -11789,7 +11789,7 @@
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A790" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B790">
         <v>484910205071</v>
@@ -11800,7 +11800,7 @@
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A791" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B791">
         <v>484910205072</v>
@@ -11811,7 +11811,7 @@
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A792" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B792">
         <v>484910205081</v>
@@ -11822,7 +11822,7 @@
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A793" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B793">
         <v>484910205082</v>
@@ -11833,7 +11833,7 @@
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A794" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B794">
         <v>484910205091</v>
@@ -11844,7 +11844,7 @@
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A795" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B795">
         <v>484910205092</v>
@@ -11855,7 +11855,7 @@
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A796" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B796">
         <v>484910205093</v>
@@ -11866,7 +11866,7 @@
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A797" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B797">
         <v>484910205101</v>
@@ -11877,7 +11877,7 @@
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A798" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B798">
         <v>484910205102</v>
@@ -11888,7 +11888,7 @@
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A799" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B799">
         <v>484910205103</v>
@@ -11899,7 +11899,7 @@
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A800" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B800">
         <v>484910205104</v>
@@ -11910,7 +11910,7 @@
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A801" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B801">
         <v>484910206021</v>
@@ -11921,7 +11921,7 @@
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A802" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B802">
         <v>484910206022</v>
@@ -11932,7 +11932,7 @@
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A803" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B803">
         <v>484910206023</v>
@@ -11943,7 +11943,7 @@
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A804" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B804">
         <v>484910206031</v>
@@ -11954,7 +11954,7 @@
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A805" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B805">
         <v>484910206032</v>
@@ -11965,7 +11965,7 @@
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A806" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B806">
         <v>484910206033</v>
@@ -11976,7 +11976,7 @@
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A807" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B807">
         <v>484910206041</v>
@@ -11987,7 +11987,7 @@
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A808" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B808">
         <v>484910206042</v>
@@ -11998,7 +11998,7 @@
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A809" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B809">
         <v>484910206051</v>
@@ -12009,7 +12009,7 @@
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A810" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B810">
         <v>484910206052</v>
@@ -12020,7 +12020,7 @@
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A811" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B811">
         <v>484910207011</v>
@@ -12031,7 +12031,7 @@
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A812" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B812">
         <v>484910207012</v>
@@ -12042,7 +12042,7 @@
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A813" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B813">
         <v>484910207031</v>
@@ -12053,7 +12053,7 @@
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A814" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B814">
         <v>484910207032</v>
@@ -12064,7 +12064,7 @@
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A815" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B815">
         <v>484910207033</v>
@@ -12075,7 +12075,7 @@
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A816" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B816">
         <v>484910207034</v>
@@ -12086,7 +12086,7 @@
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A817" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B817">
         <v>484910207041</v>
@@ -12097,7 +12097,7 @@
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A818" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B818">
         <v>484910207042</v>
@@ -12108,7 +12108,7 @@
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A819" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B819">
         <v>484910207043</v>
@@ -12119,7 +12119,7 @@
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A820" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B820">
         <v>484910207061</v>
@@ -12130,7 +12130,7 @@
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A821" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B821">
         <v>484910207062</v>
@@ -12141,7 +12141,7 @@
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A822" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B822">
         <v>484910207071</v>
@@ -12152,7 +12152,7 @@
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A823" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B823">
         <v>484910207072</v>
@@ -12163,7 +12163,7 @@
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A824" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B824">
         <v>484910207081</v>
@@ -12174,7 +12174,7 @@
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A825" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B825">
         <v>484910207082</v>
@@ -12185,7 +12185,7 @@
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A826" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B826">
         <v>484910207083</v>
@@ -12196,7 +12196,7 @@
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A827" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B827">
         <v>484910208031</v>
@@ -12207,7 +12207,7 @@
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A828" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B828">
         <v>484910208032</v>
@@ -12218,7 +12218,7 @@
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A829" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B829">
         <v>484910208033</v>
@@ -12229,7 +12229,7 @@
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A830" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B830">
         <v>484910208041</v>
@@ -12240,7 +12240,7 @@
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A831" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B831">
         <v>484910208042</v>
@@ -12251,7 +12251,7 @@
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A832" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B832">
         <v>484910208043</v>
@@ -12262,7 +12262,7 @@
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A833" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B833">
         <v>484910208044</v>
@@ -12273,7 +12273,7 @@
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A834" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B834">
         <v>484910208045</v>
@@ -12284,7 +12284,7 @@
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A835" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B835">
         <v>484910208051</v>
@@ -12295,7 +12295,7 @@
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A836" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B836">
         <v>484910208052</v>
@@ -12306,7 +12306,7 @@
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A837" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B837">
         <v>484910208053</v>
@@ -12317,7 +12317,7 @@
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A838" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B838">
         <v>484910208061</v>
@@ -12328,7 +12328,7 @@
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A839" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B839">
         <v>484910208062</v>
@@ -12339,7 +12339,7 @@
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A840" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B840">
         <v>484910208071</v>
@@ -12350,7 +12350,7 @@
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A841" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B841">
         <v>484910208072</v>
@@ -12361,7 +12361,7 @@
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A842" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B842">
         <v>484910208073</v>
@@ -12372,7 +12372,7 @@
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A843" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B843">
         <v>484910208074</v>
@@ -12383,7 +12383,7 @@
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A844" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B844">
         <v>484910208081</v>
@@ -12394,7 +12394,7 @@
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A845" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B845">
         <v>484910208082</v>
@@ -12405,7 +12405,7 @@
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A846" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B846">
         <v>484910208091</v>
@@ -12416,7 +12416,7 @@
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A847" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B847">
         <v>484910208092</v>
@@ -12427,7 +12427,7 @@
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A848" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B848">
         <v>484910208093</v>
@@ -12438,7 +12438,7 @@
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A849" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B849">
         <v>484910209001</v>
@@ -12449,7 +12449,7 @@
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A850" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B850">
         <v>484910209002</v>
@@ -12460,7 +12460,7 @@
     </row>
     <row r="851" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A851" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B851">
         <v>484910209003</v>
@@ -12471,7 +12471,7 @@
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A852" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B852">
         <v>484910209004</v>
@@ -12482,7 +12482,7 @@
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A853" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B853">
         <v>484910210001</v>
@@ -12493,7 +12493,7 @@
     </row>
     <row r="854" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A854" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B854">
         <v>484910210002</v>
@@ -12504,7 +12504,7 @@
     </row>
     <row r="855" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A855" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B855">
         <v>484910210003</v>
@@ -12515,7 +12515,7 @@
     </row>
     <row r="856" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A856" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B856">
         <v>484910211001</v>
@@ -12526,7 +12526,7 @@
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A857" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B857">
         <v>484910211002</v>
@@ -12537,7 +12537,7 @@
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A858" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B858">
         <v>484910212011</v>
@@ -12548,7 +12548,7 @@
     </row>
     <row r="859" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A859" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B859">
         <v>484910212012</v>
@@ -12559,7 +12559,7 @@
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A860" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B860">
         <v>484910212021</v>
@@ -12570,7 +12570,7 @@
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A861" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B861">
         <v>484910212022</v>
@@ -12581,7 +12581,7 @@
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A862" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B862">
         <v>484910212031</v>
@@ -12592,7 +12592,7 @@
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A863" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B863">
         <v>484910212032</v>
@@ -12603,7 +12603,7 @@
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A864" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B864">
         <v>484910212033</v>
@@ -12614,7 +12614,7 @@
     </row>
     <row r="865" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A865" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B865">
         <v>484910213001</v>
@@ -12625,7 +12625,7 @@
     </row>
     <row r="866" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A866" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B866">
         <v>484910213002</v>
@@ -12636,7 +12636,7 @@
     </row>
     <row r="867" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A867" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B867">
         <v>484910213003</v>
@@ -12647,7 +12647,7 @@
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A868" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B868">
         <v>484910213004</v>
@@ -12658,7 +12658,7 @@
     </row>
     <row r="869" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A869" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B869">
         <v>484910214011</v>
@@ -12669,7 +12669,7 @@
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A870" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B870">
         <v>484910214012</v>
@@ -12680,7 +12680,7 @@
     </row>
     <row r="871" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A871" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B871">
         <v>484910214013</v>
@@ -12691,7 +12691,7 @@
     </row>
     <row r="872" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A872" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B872">
         <v>484910214014</v>
@@ -12702,7 +12702,7 @@
     </row>
     <row r="873" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A873" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B873">
         <v>484910214021</v>
@@ -12713,7 +12713,7 @@
     </row>
     <row r="874" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A874" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B874">
         <v>484910214022</v>
@@ -12724,7 +12724,7 @@
     </row>
     <row r="875" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A875" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B875">
         <v>484910214023</v>
@@ -12735,7 +12735,7 @@
     </row>
     <row r="876" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A876" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B876">
         <v>484910214024</v>
@@ -12746,7 +12746,7 @@
     </row>
     <row r="877" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A877" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B877">
         <v>484910214031</v>
@@ -12757,7 +12757,7 @@
     </row>
     <row r="878" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A878" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B878">
         <v>484910214032</v>
@@ -12768,7 +12768,7 @@
     </row>
     <row r="879" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A879" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B879">
         <v>484910214033</v>
@@ -12779,7 +12779,7 @@
     </row>
     <row r="880" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A880" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B880">
         <v>484910215021</v>
@@ -12790,7 +12790,7 @@
     </row>
     <row r="881" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A881" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B881">
         <v>484910215022</v>
@@ -12801,7 +12801,7 @@
     </row>
     <row r="882" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A882" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B882">
         <v>484910215031</v>
@@ -12812,7 +12812,7 @@
     </row>
     <row r="883" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A883" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B883">
         <v>484910215032</v>
@@ -12823,7 +12823,7 @@
     </row>
     <row r="884" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A884" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B884">
         <v>484910215041</v>
@@ -12834,7 +12834,7 @@
     </row>
     <row r="885" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A885" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B885">
         <v>484910215042</v>
@@ -12845,7 +12845,7 @@
     </row>
     <row r="886" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A886" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B886">
         <v>484910215043</v>
@@ -12856,7 +12856,7 @@
     </row>
     <row r="887" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A887" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B887">
         <v>484910215051</v>
@@ -12867,7 +12867,7 @@
     </row>
     <row r="888" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A888" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B888">
         <v>484910215052</v>
@@ -12878,7 +12878,7 @@
     </row>
     <row r="889" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A889" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B889">
         <v>484910215053</v>
@@ -12889,7 +12889,7 @@
     </row>
     <row r="890" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A890" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B890">
         <v>484910215061</v>
@@ -12900,7 +12900,7 @@
     </row>
     <row r="891" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A891" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B891">
         <v>484910215062</v>
@@ -12911,7 +12911,7 @@
     </row>
     <row r="892" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A892" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B892">
         <v>484910215071</v>
@@ -12922,7 +12922,7 @@
     </row>
     <row r="893" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A893" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B893">
         <v>484910215072</v>
@@ -12933,7 +12933,7 @@
     </row>
     <row r="894" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A894" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B894">
         <v>484910215073</v>
@@ -12944,7 +12944,7 @@
     </row>
     <row r="895" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A895" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B895">
         <v>484910215081</v>
@@ -12955,7 +12955,7 @@
     </row>
     <row r="896" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A896" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B896">
         <v>484910215082</v>
@@ -12966,7 +12966,7 @@
     </row>
     <row r="897" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A897" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B897">
         <v>484910215083</v>
@@ -12977,7 +12977,7 @@
     </row>
     <row r="898" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A898" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B898">
         <v>484910216011</v>
@@ -12988,7 +12988,7 @@
     </row>
     <row r="899" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A899" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B899">
         <v>484910216012</v>
@@ -12999,7 +12999,7 @@
     </row>
     <row r="900" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A900" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B900">
         <v>484910216013</v>
@@ -13010,7 +13010,7 @@
     </row>
     <row r="901" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A901" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B901">
         <v>484910216021</v>
@@ -13021,7 +13021,7 @@
     </row>
     <row r="902" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A902" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B902">
         <v>484910216022</v>
@@ -13032,7 +13032,7 @@
     </row>
     <row r="903" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A903" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B903">
         <v>484910216031</v>
@@ -13043,7 +13043,7 @@
     </row>
     <row r="904" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A904" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B904">
         <v>484910216032</v>
